--- a/data/trans_dic/P70C2_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.07708805511199596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05302964996937594</v>
+        <v>0.05302964996937593</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02079785352280742</v>
+        <v>0.02137370379031859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01544455274667667</v>
+        <v>0.01851717036129484</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1146298020306223</v>
+        <v>0.1197517228952901</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2061491724880617</v>
+        <v>0.2118554640533487</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.114329562147235</v>
+        <v>0.1189226650294553</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.08765357321760556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07955040975349495</v>
+        <v>0.07955040975349494</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04100534428719492</v>
+        <v>0.04105355162785024</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05918666880047842</v>
+        <v>0.05837073378480916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0596602780713637</v>
+        <v>0.05666657818310851</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1196329413875954</v>
+        <v>0.1192428670356122</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1235815716715677</v>
+        <v>0.1256103899053554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1142158674865086</v>
+        <v>0.110026225812225</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.113721416845235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09488025404538535</v>
+        <v>0.09488025404538537</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05929097599841113</v>
+        <v>0.05910693865784691</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08750194158279488</v>
+        <v>0.08771176034519021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07794795099679908</v>
+        <v>0.0783001798737331</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1103353705417551</v>
+        <v>0.1087241326593671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1451711431707277</v>
+        <v>0.1425345642025892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1140484385087004</v>
+        <v>0.1152760044019115</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.09565221870567615</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09698024871959793</v>
+        <v>0.09698024871959791</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.09625523218625483</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07056464399778656</v>
+        <v>0.07121609570412138</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07764901352181093</v>
+        <v>0.07629788367272228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07935998903517262</v>
+        <v>0.07850284676749891</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1264681308296501</v>
+        <v>0.123751145083355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1194538939692248</v>
+        <v>0.1228714150801387</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1161045701730357</v>
+        <v>0.1131987999461097</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09390481545675818</v>
+        <v>0.09390481545675815</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08383342289461224</v>
+        <v>0.08383342289461222</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.08972186423890592</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06443142076706239</v>
+        <v>0.06698373170106278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05793453946163585</v>
+        <v>0.05940720462008799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06857955929064882</v>
+        <v>0.07049880214997355</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1251850343512733</v>
+        <v>0.1280957703892186</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.114062561724189</v>
+        <v>0.1172163259241494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1119561440100491</v>
+        <v>0.1151177251007364</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.08308421890987243</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.09617176205466348</v>
+        <v>0.09617176205466346</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.08883071719958008</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06902639077040104</v>
+        <v>0.06947603780450221</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08248319215441378</v>
+        <v>0.08243774752596328</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07972773592581106</v>
+        <v>0.07949243629260414</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09963981188708343</v>
+        <v>0.09777347825544305</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1115974798695459</v>
+        <v>0.1123175601413796</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09905498262808238</v>
+        <v>0.1006158314273172</v>
       </c>
     </row>
     <row r="22">
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1908</v>
+        <v>1961</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2998</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11737</v>
+        <v>12261</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18913</v>
+        <v>19436</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22195</v>
+        <v>23087</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16235</v>
+        <v>16254</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18893</v>
+        <v>18632</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42665</v>
+        <v>40524</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47365</v>
+        <v>47211</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39448</v>
+        <v>40095</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81679</v>
+        <v>78683</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31913</v>
+        <v>31814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34780</v>
+        <v>34863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72937</v>
+        <v>73267</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>59388</v>
+        <v>58520</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57702</v>
+        <v>56654</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>106717</v>
+        <v>107866</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38533</v>
+        <v>38889</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35267</v>
+        <v>34653</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79380</v>
+        <v>78523</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>69061</v>
+        <v>67577</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54254</v>
+        <v>55806</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>116134</v>
+        <v>113228</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21119</v>
+        <v>21956</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13490</v>
+        <v>13833</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38447</v>
+        <v>39523</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41033</v>
+        <v>41987</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26559</v>
+        <v>27293</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>62765</v>
+        <v>64537</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>131868</v>
+        <v>132727</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>123349</v>
+        <v>123281</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>271541</v>
+        <v>270739</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>190352</v>
+        <v>186787</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>166888</v>
+        <v>167965</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>337367</v>
+        <v>342683</v>
       </c>
     </row>
     <row r="28">
